--- a/Article Category Data/Categories2023-04-13 004213.504630.xlsx
+++ b/Article Category Data/Categories2023-04-13 004213.504630.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Hadiya\fyp\khulasa\Article Category Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9A14B8-3C16-45EE-8D55-8B7F9753CC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5EDE88-5DE9-470F-82DF-A04800629768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="339">
   <si>
     <t>title</t>
   </si>
@@ -1028,6 +1028,15 @@
   </si>
   <si>
     <t>https://www.bbc.com/urdu/articles/czq9414lne6o</t>
+  </si>
+  <si>
+    <t>science? Other?</t>
+  </si>
+  <si>
+    <t>health?</t>
+  </si>
+  <si>
+    <t>sports? Other?</t>
   </si>
 </sst>
 </file>
@@ -1041,12 +1050,24 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1061,8 +1082,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1413,7 @@
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1412,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1423,18 +1446,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1445,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1456,7 +1479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1467,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1478,7 +1501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1489,18 +1512,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1511,18 +1537,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1533,7 +1562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1544,18 +1573,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1566,7 +1598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1577,29 +1609,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1610,7 +1642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1621,7 +1653,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1632,7 +1664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1643,7 +1675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1654,7 +1686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1665,7 +1697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1676,7 +1708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1687,18 +1719,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1709,18 +1741,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1731,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1749,7 +1784,7 @@
       <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1918,18 +1953,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>102</v>
       </c>
       <c r="B49" t="s">
         <v>103</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -1940,7 +1975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -1951,7 +1986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -1962,18 +1997,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>110</v>
       </c>
       <c r="B53" t="s">
         <v>111</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -1984,7 +2019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -1995,18 +2030,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
       <c r="B56" t="s">
         <v>117</v>
       </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -2017,7 +2055,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -2028,7 +2066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -2039,7 +2077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -2050,7 +2088,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -2061,7 +2099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -2072,7 +2110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -2083,29 +2121,35 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>133</v>
       </c>
       <c r="B64" t="s">
         <v>134</v>
       </c>
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>135</v>
       </c>
       <c r="B65" t="s">
         <v>136</v>
       </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -2116,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -2127,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -2138,7 +2182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -2149,7 +2193,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -2160,7 +2204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -2171,7 +2215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -2182,7 +2226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -2193,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -2204,7 +2248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -2215,7 +2259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -2226,7 +2270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -2237,7 +2281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -2248,7 +2292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -2259,7 +2303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -2270,18 +2314,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>167</v>
       </c>
       <c r="B81" t="s">
         <v>168</v>
       </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -2292,18 +2336,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>171</v>
       </c>
       <c r="B83" t="s">
         <v>172</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -2314,7 +2358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>175</v>
       </c>
@@ -2325,7 +2369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>177</v>
       </c>
@@ -2336,18 +2380,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>179</v>
       </c>
       <c r="B87" t="s">
         <v>180</v>
       </c>
-      <c r="C87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>181</v>
       </c>
@@ -2358,7 +2405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -2369,18 +2416,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>185</v>
       </c>
       <c r="B90" t="s">
         <v>186</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -2391,7 +2441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>189</v>
       </c>
@@ -2402,18 +2452,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>191</v>
       </c>
       <c r="B93" t="s">
         <v>192</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>193</v>
       </c>
@@ -2424,7 +2474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>195</v>
       </c>
@@ -2435,7 +2485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>197</v>
       </c>
@@ -2446,18 +2496,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>199</v>
       </c>
       <c r="B97" t="s">
         <v>200</v>
       </c>
-      <c r="C97" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>201</v>
       </c>
@@ -2468,7 +2521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>203</v>
       </c>
@@ -2479,7 +2532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>205</v>
       </c>
@@ -2490,7 +2543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>207</v>
       </c>
@@ -2501,7 +2554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>209</v>
       </c>
@@ -2512,7 +2565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>211</v>
       </c>
@@ -2523,7 +2576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>213</v>
       </c>
@@ -2534,7 +2587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>215</v>
       </c>
@@ -2545,29 +2598,35 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>217</v>
       </c>
       <c r="B106" t="s">
         <v>218</v>
       </c>
-      <c r="C106" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>219</v>
       </c>
       <c r="B107" t="s">
         <v>220</v>
       </c>
-      <c r="C107" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>221</v>
       </c>
@@ -2578,7 +2637,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>223</v>
       </c>
@@ -2589,18 +2648,21 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>225</v>
       </c>
       <c r="B110" t="s">
         <v>226</v>
       </c>
-      <c r="C110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>227</v>
       </c>
@@ -2611,7 +2673,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>229</v>
       </c>
@@ -2622,7 +2684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>231</v>
       </c>
@@ -2633,7 +2695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>233</v>
       </c>
@@ -2644,29 +2706,32 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>236</v>
       </c>
       <c r="B115" t="s">
         <v>237</v>
       </c>
-      <c r="C115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>238</v>
       </c>
       <c r="B116" t="s">
         <v>239</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -2677,7 +2742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>242</v>
       </c>
@@ -2688,18 +2753,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>244</v>
       </c>
       <c r="B119" t="s">
         <v>245</v>
       </c>
-      <c r="C119" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>246</v>
       </c>
@@ -2710,7 +2775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>248</v>
       </c>
@@ -2721,7 +2786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>250</v>
       </c>
@@ -2732,7 +2797,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>252</v>
       </c>
@@ -2743,7 +2808,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>254</v>
       </c>
@@ -2754,7 +2819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>256</v>
       </c>
@@ -2765,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>258</v>
       </c>
@@ -2776,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>260</v>
       </c>
@@ -2787,7 +2852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>262</v>
       </c>
